--- a/MCデータ整理用.xlsx
+++ b/MCデータ整理用.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\testcsv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D8411EF-71F1-4FD7-8D05-DFA81023FFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5847F9-A076-4568-AD5D-F050C410DAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{7C5C1437-7931-47CD-8E0A-98046FED11DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{7C5C1437-7931-47CD-8E0A-98046FED11DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2 (3)" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$D$228</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="477">
   <si>
     <r>
       <t>&lt;</t>
@@ -2633,6 +2634,58 @@
   </si>
   <si>
     <t>END</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>奇妙なポーション</t>
+  </si>
+  <si>
+    <t>治癒のポーション</t>
+  </si>
+  <si>
+    <t>再生のポーション</t>
+  </si>
+  <si>
+    <t>力のポーション</t>
+  </si>
+  <si>
+    <t>暗視のポーション</t>
+  </si>
+  <si>
+    <t>透明化のポーション</t>
+  </si>
+  <si>
+    <t>跳躍のポーション</t>
+  </si>
+  <si>
+    <t>耐火のポーション</t>
+  </si>
+  <si>
+    <t>俊敏のポーション</t>
+  </si>
+  <si>
+    <t>タートルマスターのポーション</t>
+  </si>
+  <si>
+    <t>水中呼吸のポーション</t>
+  </si>
+  <si>
+    <t>低速落下のポーション</t>
+  </si>
+  <si>
+    <t>毒のポーション</t>
+  </si>
+  <si>
+    <t>鈍化のポーション</t>
+  </si>
+  <si>
+    <t>負傷のポーション</t>
+  </si>
+  <si>
+    <t>弱化のポーション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -3251,8 +3304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A09D1E9-B37B-4EF9-8B4F-7D57DC6E81A9}">
   <dimension ref="A2:E229"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6616,8 +6669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5F64AD-2EF1-4659-88DB-A75563DC629B}">
   <dimension ref="B2:E215"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9792,8 +9845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B476D5-C992-4030-A047-D3B6C2910706}">
   <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15402,4 +15455,404 @@
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E640A031-35CA-4773-A885-6B1188663CB6}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J1" t="str">
+        <f>I1&amp;F1&amp;G1&amp;H1</f>
+        <v xml:space="preserve">      &lt;option&gt;奇妙なポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" t="s">
+        <v>476</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J16" si="0">I2&amp;F2&amp;G2&amp;H2</f>
+        <v xml:space="preserve">      &lt;option&gt;治癒のポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" t="s">
+        <v>476</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      &lt;option&gt;再生のポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
+        <v>463</v>
+      </c>
+      <c r="H4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      &lt;option&gt;力のポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" t="s">
+        <v>464</v>
+      </c>
+      <c r="H5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" t="s">
+        <v>476</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      &lt;option&gt;暗視のポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" t="s">
+        <v>476</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      &lt;option&gt;透明化のポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I7" t="s">
+        <v>476</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      &lt;option&gt;跳躍のポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" t="s">
+        <v>467</v>
+      </c>
+      <c r="H8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I8" t="s">
+        <v>476</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      &lt;option&gt;耐火のポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" t="s">
+        <v>468</v>
+      </c>
+      <c r="H9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9" t="s">
+        <v>476</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      &lt;option&gt;俊敏のポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" t="s">
+        <v>469</v>
+      </c>
+      <c r="H10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I10" t="s">
+        <v>476</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      &lt;option&gt;タートルマスターのポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>470</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" t="s">
+        <v>470</v>
+      </c>
+      <c r="H11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I11" t="s">
+        <v>476</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      &lt;option&gt;水中呼吸のポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>471</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" t="s">
+        <v>471</v>
+      </c>
+      <c r="H12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I12" t="s">
+        <v>476</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      &lt;option&gt;低速落下のポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>472</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" t="s">
+        <v>472</v>
+      </c>
+      <c r="H13" t="s">
+        <v>239</v>
+      </c>
+      <c r="I13" t="s">
+        <v>476</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      &lt;option&gt;毒のポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>473</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" t="s">
+        <v>473</v>
+      </c>
+      <c r="H14" t="s">
+        <v>239</v>
+      </c>
+      <c r="I14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      &lt;option&gt;鈍化のポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" t="s">
+        <v>474</v>
+      </c>
+      <c r="H15" t="s">
+        <v>239</v>
+      </c>
+      <c r="I15" t="s">
+        <v>476</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      &lt;option&gt;負傷のポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>475</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H16" t="s">
+        <v>239</v>
+      </c>
+      <c r="I16" t="s">
+        <v>476</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">      &lt;option&gt;弱化のポーション&lt;/option&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>